--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211526.3040683047</v>
+        <v>225252.6622057228</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515714</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515712</v>
+        <v>86005.92442515711</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989089</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566065</v>
+        <v>-1375.378340566094</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566065</v>
+        <v>-1375.378340566094</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.37834056608</v>
+        <v>-1375.378340566094</v>
       </c>
       <c r="E6" t="n">
-        <v>-77109.8935869173</v>
+        <v>-77109.89358691736</v>
       </c>
       <c r="F6" t="n">
         <v>55990.10641308269</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>225252.6622057228</v>
+        <v>100142.7634082461</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>86005.92442515711</v>
       </c>
       <c r="C2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515714</v>
       </c>
       <c r="D2" t="n">
-        <v>86005.92442515711</v>
+        <v>86005.92442515712</v>
       </c>
       <c r="E2" t="n">
         <v>91456.43851989089</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566094</v>
+        <v>-16526.05231060086</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566094</v>
+        <v>-16526.05231060083</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566094</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="E6" t="n">
-        <v>-77109.89358691736</v>
+        <v>-91919.91042603126</v>
       </c>
       <c r="F6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="G6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="H6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="I6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="J6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="K6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="L6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="M6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="N6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="O6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
       <c r="P6" t="n">
-        <v>55990.10641308269</v>
+        <v>41180.08957396878</v>
       </c>
     </row>
   </sheetData>
